--- a/datasets/master_fajas.xlsx
+++ b/datasets/master_fajas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capoma\Desktop\AI-Applications\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capoma\Desktop\Satelite Projects\DEVS-Project\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C961266-5332-4ED3-BD32-50174805509A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40076B0-3205-439D-B216-FDBF36764683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9F8866E9-F76A-412E-81A3-110703A3EE81}"/>
   </bookViews>
@@ -89,12 +89,6 @@
     <t>[8]</t>
   </si>
   <si>
-    <t>[TAMAKUN-S-1,TAMAKUN-S-3,TAMAKUN-S-3,TAMAKUN-N-1,TAMAKUN-N-2,TAMAKUN-N-3,TANGARARA-S-1,TANGARARA-S-2,TANGARARA-S-3,TANGARARA-S-4]</t>
-  </si>
-  <si>
-    <t>[TAMAKUN-S-5,TAMAKUN-S-6,TAMAKUN-N-6,TANGARARA-S-6]</t>
-  </si>
-  <si>
     <t>[np.nan]</t>
   </si>
   <si>
@@ -108,6 +102,12 @@
   </si>
   <si>
     <t>TANGARARA-N</t>
+  </si>
+  <si>
+    <t>[TAMAKUN-S-5,TAMAKUN-S-6,TAMAKUN-S-7,TAMAKUN-N-6,TAMAKUN-N-7,TANGARARA-S-6,TANGARARA-S-7]</t>
+  </si>
+  <si>
+    <t>[TAMAKUN-S-1,TAMAKUN-S-2,TAMAKUN-S-3,TAMAKUN-S-3,TAMAKUN-N-1,TAMAKUN-N-2,TAMAKUN-N-3,TANGARARA-S-1,TANGARARA-S-2,TANGARARA-S-3,TANGARARA-S-4]</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -548,8 +548,8 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -571,8 +571,8 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -641,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -686,8 +686,8 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -709,8 +709,8 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -732,8 +732,8 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -802,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -825,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -847,8 +847,8 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -870,8 +870,8 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -893,8 +893,8 @@
       <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -916,8 +916,8 @@
       <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
-        <v>17</v>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -963,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -986,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
